--- a/Datas/test_apidata.xlsx
+++ b/Datas/test_apidata.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="20543" windowHeight="9047" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="t_接" sheetId="2" r:id="rId2"/>
-    <sheet name="t_接口222222" sheetId="3" r:id="rId3"/>
+    <sheet name="1t_接口222222" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>conf_key</t>
   </si>
@@ -79,70 +79,106 @@
     <t>http://testingedu.com.cn:8081/inter/HTTP</t>
   </si>
   <si>
+    <t>${user}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>充2</t>
+  </si>
+  <si>
+    <t>savejson</t>
+  </si>
+  <si>
+    <t>token1</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>addheader</t>
+  </si>
+  <si>
+    <t>${token1}</t>
+  </si>
+  <si>
+    <t>savedata</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>${pwd}</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>saveparam</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>${user1}</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>{"username": "", "pwd": "", "nickname":"熊明"}</t>
+  </si>
+  <si>
+    <t>assertequals</t>
+  </si>
+  <si>
+    <t>{"username": "", "pwd": ${password}, "nickname":"熊明"}</t>
+  </si>
+  <si>
+    <t>xiao111</t>
+  </si>
+  <si>
+    <t>xiao987</t>
+  </si>
+  <si>
+    <t>check_sql</t>
+  </si>
+  <si>
+    <t>{pwd}</t>
+  </si>
+  <si>
     <t>{user}</t>
   </si>
   <si>
-    <t>addheader</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>auth</t>
-  </si>
-  <si>
-    <t>充2</t>
-  </si>
-  <si>
-    <t>savejson</t>
+    <t>充3</t>
+  </si>
+  <si>
+    <t>充4</t>
+  </si>
+  <si>
+    <t>充5</t>
   </si>
   <si>
     <t>{token}</t>
   </si>
   <si>
-    <t>register</t>
+    <t>充6</t>
   </si>
   <si>
     <t>{"username": "", "pwd": "123456", "nickname":"熊明"}</t>
-  </si>
-  <si>
-    <t>assertequals</t>
-  </si>
-  <si>
-    <t>{"username": "", "pwd": "126", "nickname":"熊明"}</t>
-  </si>
-  <si>
-    <t>系统1</t>
-  </si>
-  <si>
-    <t>系统3</t>
-  </si>
-  <si>
-    <t>xiao111</t>
-  </si>
-  <si>
-    <t>xiao987</t>
-  </si>
-  <si>
-    <t>check_sql</t>
-  </si>
-  <si>
-    <t>{pwd}</t>
-  </si>
-  <si>
-    <t>充3</t>
-  </si>
-  <si>
-    <t>充4</t>
-  </si>
-  <si>
-    <t>充5</t>
-  </si>
-  <si>
-    <t>充6</t>
   </si>
   <si>
     <t>充7</t>
@@ -154,8 +190,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -176,14 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +227,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,53 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,23 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +307,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -326,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,11 +573,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,25 +605,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,26 +634,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,145 +676,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1195,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1189,15 +1225,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>1234567890</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1221,10 +1254,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1323,14 +1356,18 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
@@ -1343,17 +1380,15 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1369,13 +1404,13 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -1391,13 +1426,13 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -1413,13 +1448,13 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -1428,20 +1463,20 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
@@ -1450,30 +1485,139 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7">
-        <v>402</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <v>402</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://testingedu.com.cn:8081/inter/HTTP" tooltip="http://testingedu.com.cn:8081/inter/HTTP"/>
-    <hyperlink ref="E4" r:id="rId2" display="auth" tooltip="http://api.lemonban.com/futureloan/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1484,13 +1628,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A15" sqref="$A2:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88888888888889" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" style="8" customWidth="1"/>
@@ -1542,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
@@ -1562,7 +1706,9 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -1580,37 +1726,267 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="9:10">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="9:10">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="9:10">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="9:10">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <v>402</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1634,7 +2010,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -1642,7 +2018,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1671,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1691,7 +2067,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -1705,16 +2081,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -1726,13 +2102,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -1747,16 +2123,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -1770,16 +2146,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -1793,16 +2169,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -1816,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>

--- a/Datas/test_apidata.xlsx
+++ b/Datas/test_apidata.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20543" windowHeight="9047" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="t_接" sheetId="2" r:id="rId2"/>
-    <sheet name="1t_接口222222" sheetId="3" r:id="rId3"/>
+    <sheet name="t_接口py" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -190,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,21 +212,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,22 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +256,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,16 +294,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,9 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,21 +346,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -362,6 +362,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,163 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +610,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,15 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -688,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,7 +1256,7 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1630,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A2:$XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
